--- a/Data_Exploration_with_In-built_Functions_Live_Class_worksheet.xlsx
+++ b/Data_Exploration_with_In-built_Functions_Live_Class_worksheet.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Activity 1" sheetId="5" r:id="rId1"/>
     <sheet name="Activity 2" sheetId="7" r:id="rId2"/>
     <sheet name="Activity 3" sheetId="3" r:id="rId3"/>
     <sheet name="Activity 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Activity 1'!$A$12:$E$21</definedName>
@@ -20,8 +21,9 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="24" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="72">
   <si>
     <t>Product</t>
   </si>
@@ -175,9 +177,6 @@
     <t>Create Your Histogram here</t>
   </si>
   <si>
-    <t>Create your Pivot table here</t>
-  </si>
-  <si>
     <t>Product Name</t>
   </si>
   <si>
@@ -237,6 +236,30 @@
   <si>
     <t>Column Labels</t>
   </si>
+  <si>
+    <t>pivot table of sales data</t>
+  </si>
+  <si>
+    <t>Average of Sales</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Jan Sale Data</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>Max of Sales</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +270,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,8 +361,28 @@
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,8 +400,32 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -462,14 +529,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -543,12 +707,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -565,16 +723,604 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.5"/>
+        <color rgb="FF374151"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFD9D9E3"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.5"/>
+        <color rgb="FF374151"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFD9D9E3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.5"/>
+        <color rgb="FF374151"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFD9D9E3"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFD9D9E3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFD9D9E3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFD9D9E3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF343541"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFD9D9E3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF343541"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFD9D9E3"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFD9D9E3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF343541"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFD9D9E3"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFD9D9E3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF343541"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFD9D9E3"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFD9D9E3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFD9D9E3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFD9D9E3"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFD9D9E3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF343541"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFD9D9E3"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFD9D9E3"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFD9D9E3"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF7F7F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFD9D9E3"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFD9D9E3"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFD9D9E3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFD9D9E3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.6"/>
+        <color theme="0"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
@@ -934,7 +1680,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1076,11 +1821,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214513536"/>
-        <c:axId val="214515072"/>
+        <c:axId val="215083648"/>
+        <c:axId val="215093632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="214513536"/>
+        <c:axId val="215083648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,14 +1865,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214515072"/>
+        <c:crossAx val="215093632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="214515072"/>
+        <c:axId val="215093632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214513536"/>
+        <c:crossAx val="215083648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1216,6 +1961,355 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$58:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$58:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="46333312"/>
+        <c:axId val="46331776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="46333312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46331776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="46331776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46333312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16798818897637796"/>
+          <c:y val="7.4668270632837555E-2"/>
+          <c:w val="0.62592497812773407"/>
+          <c:h val="0.86882691746864971"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$74:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="222514560"/>
+        <c:axId val="46290048"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="222514560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46290048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46290048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222514560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1268,7 +2362,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1522,7 +2615,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1658,7 +2750,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1826,11 +2917,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="214448000"/>
-        <c:axId val="214483712"/>
+        <c:axId val="216275584"/>
+        <c:axId val="216294912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214448000"/>
+        <c:axId val="216275584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +2959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214483712"/>
+        <c:crossAx val="216294912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1876,7 +2967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214483712"/>
+        <c:axId val="216294912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +2977,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214448000"/>
+        <c:crossAx val="216275584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2133,11 +3224,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="214842752"/>
-        <c:axId val="214852736"/>
+        <c:axId val="216316544"/>
+        <c:axId val="216072576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214842752"/>
+        <c:axId val="216316544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,7 +3271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214852736"/>
+        <c:crossAx val="216072576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2188,7 +3279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214852736"/>
+        <c:axId val="216072576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2239,7 +3330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214842752"/>
+        <c:crossAx val="216316544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2493,11 +3584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214882176"/>
-        <c:axId val="214888448"/>
+        <c:axId val="216115456"/>
+        <c:axId val="216117632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214882176"/>
+        <c:axId val="216115456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2554,12 +3645,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214888448"/>
+        <c:crossAx val="216117632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214888448"/>
+        <c:axId val="216117632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,7 +3707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214882176"/>
+        <c:crossAx val="216115456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2669,6 +3760,960 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44570</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44572</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>"₹"\ #,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="215385984"/>
+        <c:axId val="215387520"/>
+        <c:axId val="216310656"/>
+      </c:line3DChart>
+      <c:dateAx>
+        <c:axId val="215385984"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:effectLst>
+            <a:glow rad="127000">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:glow>
+            <a:outerShdw blurRad="482600" dist="190500" dir="2820000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="44000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:crossAx val="215387520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="215387520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="215385984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="216310656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="215387520"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:schemeClr val="bg1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="89000"/>
+        </a:schemeClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vote  Bar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="40"/>
+      <c:rotY val="70"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Votes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$27:$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Candidate A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Candidate B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Candidate C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Candidate D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="cone"/>
+        <c:axId val="215565056"/>
+        <c:axId val="215566592"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="215565056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="215566592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="l"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="215566592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </c:spPr>
+        <c:crossAx val="215565056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+    <a:effectLst>
+      <a:glow rad="228600">
+        <a:schemeClr val="tx2">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+          <a:alpha val="40000"/>
+        </a:schemeClr>
+      </a:glow>
+      <a:softEdge rad="254000"/>
+    </a:effectLst>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Votes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="25"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="3"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3267716535433074E-2"/>
+                  <c:y val="-0.10445100612423447"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10721084864391951"/>
+                  <c:y val="-2.2983377077865266E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.6063429571303586E-2"/>
+                  <c:y val="-9.4028871391076116E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.6058398950131233E-2"/>
+                  <c:y val="-1.3866287547389909E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
+            <c:txPr>
+              <a:bodyPr rot="1140000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$27:$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Candidate A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Candidate B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Candidate C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Candidate D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71475087489063871"/>
+          <c:y val="0.3857483960338291"/>
+          <c:w val="0.19803915379174486"/>
+          <c:h val="0.33486876640419949"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data_Exploration_with_In-built_Functions_Live_Class_worksheet.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$42:$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>East</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$44:$H$47</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$44:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$42:$J$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>North</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$44:$H$47</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$44:$J$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$42:$K$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$44:$H$47</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$44:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="216933120"/>
+        <c:axId val="216934656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="216933120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="216934656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="216934656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="216933120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -3466,6 +5511,191 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>93300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>153600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>511969</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>92868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>378619</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>402432</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vivek CP" refreshedDate="45042.575968518518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6">
   <cacheSource type="worksheet">
@@ -3524,10 +5754,51 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Month" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="January"/>
+        <s v="February"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Sales" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="56" maxValue="986"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Arun" refreshedDate="45397.812608217595" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="6">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table7"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems count="3">
+        <s v="A"/>
+        <s v="B"/>
+        <s v="C"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="3">
+        <s v="East"/>
+        <s v="West"/>
+        <s v="North"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Jan"/>
+        <s v="Feb"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="250"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3584,81 +5855,122 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="January"/>
+    <x v="0"/>
     <n v="100"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="February"/>
+    <x v="1"/>
     <n v="200"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <s v="January"/>
+    <x v="0"/>
     <n v="150"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <s v="February"/>
+    <x v="1"/>
     <n v="250"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <s v="January"/>
+    <x v="0"/>
     <n v="75"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <s v="February"/>
+    <x v="1"/>
     <n v="563"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="January"/>
+    <x v="0"/>
     <n v="622"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="February"/>
+    <x v="1"/>
     <n v="986"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <s v="January"/>
+    <x v="0"/>
     <n v="258"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <s v="February"/>
+    <x v="1"/>
     <n v="821"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <s v="January"/>
+    <x v="0"/>
     <n v="56"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <s v="February"/>
+    <x v="1"/>
     <n v="254"/>
   </r>
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="6">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="180"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G4:J9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G4:J9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -3675,7 +5987,13 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -3709,11 +6027,14 @@
       <x/>
     </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="0" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of Sales" fld="3" subtotal="average" baseField="0" baseItem="2" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3821,15 +6142,104 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="H42:L47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Max of Sales" fld="3" subtotal="max" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A12:E21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" headerRowCellStyle="Neutral">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A12:E21" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" headerRowCellStyle="Neutral">
   <autoFilter ref="A12:E21"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Product Name" dataDxfId="9"/>
-    <tableColumn id="2" name="Month" dataDxfId="8"/>
-    <tableColumn id="3" name="Units Sold" dataDxfId="7"/>
-    <tableColumn id="4" name="Sales Revenue" dataDxfId="6"/>
-    <tableColumn id="5" name="Sales Price" dataDxfId="5"/>
+    <tableColumn id="1" name="Product Name" dataDxfId="36"/>
+    <tableColumn id="2" name="Month" dataDxfId="35"/>
+    <tableColumn id="3" name="Units Sold" dataDxfId="34"/>
+    <tableColumn id="4" name="Sales Revenue" dataDxfId="33"/>
+    <tableColumn id="5" name="Sales Price" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3857,12 +6267,74 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A27:B30" totalsRowShown="0">
   <autoFilter ref="A27:B30"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Product" dataDxfId="4"/>
-    <tableColumn id="4" name="Column1" dataDxfId="3">
+    <tableColumn id="1" name="Product" dataDxfId="31"/>
+    <tableColumn id="4" name="Column1" dataDxfId="30">
       <calculatedColumnFormula>SUMIFS(Table1[Units Sold],Table1[Product Name],Table4[[#This Row],[Product]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="I17:L20" totalsRowShown="0" headerRowDxfId="28">
+  <autoFilter ref="I17:L20"/>
+  <sortState ref="I18:L20">
+    <sortCondition descending="1" ref="J17:J20"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1" dataDxfId="27"/>
+    <tableColumn id="2" name="Column2" dataDxfId="26"/>
+    <tableColumn id="3" name="Column3" dataDxfId="25"/>
+    <tableColumn id="4" name="Column4" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C8:D20" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" dataCellStyle="60% - Accent5">
+  <autoFilter ref="C8:D20"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Date" dataDxfId="20" dataCellStyle="60% - Accent5"/>
+    <tableColumn id="2" name="Sales" dataDxfId="19" dataCellStyle="60% - Accent5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="C26:D30" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="C26:D30"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Candidate" dataDxfId="15"/>
+    <tableColumn id="2" name="Number of Votes" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="C40:F46" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="C40:F46"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Product" dataDxfId="9"/>
+    <tableColumn id="2" name="Region" dataDxfId="8"/>
+    <tableColumn id="3" name="Month" dataDxfId="7"/>
+    <tableColumn id="4" name="Sales" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="C57:D62" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="C57:D62"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="X" dataDxfId="2"/>
+    <tableColumn id="2" name="Y" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4182,120 +6654,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
       <c r="N10" t="e">
         <f>-'Activity 2'!E6</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="D12" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>48</v>
-      </c>
       <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
         <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4303,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1">
         <v>70</v>
@@ -4378,7 +6850,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1">
         <v>50</v>
@@ -4429,7 +6901,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1">
         <v>30</v>
@@ -4480,14 +6952,14 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="29">
         <f>SUMIFS(Table1[Units Sold],Table1[Product Name],Table4[[#This Row],[Product]])</f>
         <v>180</v>
       </c>
@@ -4496,7 +6968,7 @@
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="29">
         <f>SUMIFS(Table1[Units Sold],Table1[Product Name],Table4[[#This Row],[Product]])</f>
         <v>120</v>
       </c>
@@ -4505,7 +6977,7 @@
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="29">
         <f>SUMIFS(Table1[Units Sold],Table1[Product Name],Table4[[#This Row],[Product]])</f>
         <v>60</v>
       </c>
@@ -4543,7 +7015,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="105" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
@@ -4551,33 +7023,33 @@
     </row>
     <row r="3" spans="1:14" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4591,10 +7063,10 @@
         <v>2</v>
       </c>
       <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s">
         <v>61</v>
-      </c>
-      <c r="N7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4710,13 +7182,13 @@
       <c r="F17" s="26">
         <v>13</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
-      <c r="G18" s="32">
+      <c r="G18" s="30">
         <v>4</v>
       </c>
     </row>
@@ -6085,22 +8557,30 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6113,8 +8593,11 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>44</v>
+      <c r="G2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6127,7 +8610,7 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="31">
         <v>100</v>
       </c>
     </row>
@@ -6141,14 +8624,14 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="31">
         <v>200</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6161,11 +8644,11 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="31">
         <v>150</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -6187,20 +8670,20 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="31">
         <v>250</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="34">
-        <v>300</v>
-      </c>
-      <c r="I6" s="34">
-        <v>400</v>
-      </c>
-      <c r="J6" s="34">
-        <v>700</v>
+      <c r="H6" s="32">
+        <v>100</v>
+      </c>
+      <c r="I6" s="32">
+        <v>150</v>
+      </c>
+      <c r="J6" s="32">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6213,20 +8696,20 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="31">
         <v>75</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="34">
-        <v>638</v>
-      </c>
-      <c r="I7" s="34">
-        <v>1608</v>
-      </c>
-      <c r="J7" s="34">
-        <v>2246</v>
+      <c r="H7" s="32">
+        <v>75</v>
+      </c>
+      <c r="I7" s="32">
+        <v>622</v>
+      </c>
+      <c r="J7" s="32">
+        <v>348.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6239,20 +8722,20 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="31">
         <v>563</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="34">
-        <v>1079</v>
-      </c>
-      <c r="I8" s="34">
-        <v>310</v>
-      </c>
-      <c r="J8" s="34">
-        <v>1389</v>
+      <c r="H8" s="32">
+        <v>258</v>
+      </c>
+      <c r="I8" s="32">
+        <v>56</v>
+      </c>
+      <c r="J8" s="32">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6265,20 +8748,20 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="31">
         <v>622</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="34">
-        <v>2017</v>
-      </c>
-      <c r="I9" s="34">
-        <v>2318</v>
-      </c>
-      <c r="J9" s="34">
-        <v>4335</v>
+      <c r="H9" s="32">
+        <v>144.33333333333334</v>
+      </c>
+      <c r="I9" s="32">
+        <v>276</v>
+      </c>
+      <c r="J9" s="32">
+        <v>210.16666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6291,7 +8774,7 @@
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="31">
         <v>986</v>
       </c>
     </row>
@@ -6305,7 +8788,7 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="31">
         <v>258</v>
       </c>
     </row>
@@ -6319,7 +8802,7 @@
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="31">
         <v>821</v>
       </c>
     </row>
@@ -6333,7 +8816,7 @@
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="31">
         <v>56</v>
       </c>
     </row>
@@ -6347,12 +8830,75 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="31">
         <v>254</v>
       </c>
     </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="32">
+        <v>258</v>
+      </c>
+      <c r="K18" s="32">
+        <v>56</v>
+      </c>
+      <c r="L18" s="32">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="32">
+        <v>100</v>
+      </c>
+      <c r="K19" s="32">
+        <v>150</v>
+      </c>
+      <c r="L19" s="32">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="32">
+        <v>75</v>
+      </c>
+      <c r="K20" s="32">
+        <v>622</v>
+      </c>
+      <c r="L20" s="32">
+        <v>348.5</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6361,14 +8907,15 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B4:X136"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" workbookViewId="0">
-      <selection activeCell="P91" sqref="P91"/>
+    <sheetView showGridLines="0" topLeftCell="A94" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106:B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -6948,4 +9495,577 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:L103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="53"/>
+    </row>
+    <row r="8" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="33">
+        <v>44562</v>
+      </c>
+      <c r="D9" s="34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="33">
+        <v>44563</v>
+      </c>
+      <c r="D10" s="34">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="33">
+        <v>44564</v>
+      </c>
+      <c r="D11" s="34">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="33">
+        <v>44565</v>
+      </c>
+      <c r="D12" s="34">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="33">
+        <v>44566</v>
+      </c>
+      <c r="D13" s="34">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="33">
+        <v>44567</v>
+      </c>
+      <c r="D14" s="34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="33">
+        <v>44568</v>
+      </c>
+      <c r="D15" s="34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="33">
+        <v>44569</v>
+      </c>
+      <c r="D16" s="34">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="33">
+        <v>44570</v>
+      </c>
+      <c r="D17" s="34">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="33">
+        <v>44571</v>
+      </c>
+      <c r="D18" s="34">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="33">
+        <v>44572</v>
+      </c>
+      <c r="D19" s="34">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="33">
+        <v>44573</v>
+      </c>
+      <c r="D20" s="34">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C40" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C41" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C42" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="41">
+        <v>200</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C43" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="41">
+        <v>150</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C44" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="41">
+        <v>120</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="48">
+        <v>120</v>
+      </c>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C45" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="41">
+        <v>250</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="48">
+        <v>250</v>
+      </c>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48">
+        <v>200</v>
+      </c>
+      <c r="L45" s="48">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C46" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="47">
+        <v>180</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48">
+        <v>180</v>
+      </c>
+      <c r="K46" s="48">
+        <v>150</v>
+      </c>
+      <c r="L46" s="48">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H47" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="48">
+        <v>250</v>
+      </c>
+      <c r="J47" s="48">
+        <v>180</v>
+      </c>
+      <c r="K47" s="48">
+        <v>200</v>
+      </c>
+      <c r="L47" s="48">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="54">
+        <v>1</v>
+      </c>
+      <c r="D58" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="54">
+        <v>2</v>
+      </c>
+      <c r="D59" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="54">
+        <v>3</v>
+      </c>
+      <c r="D60" s="49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="54">
+        <v>4</v>
+      </c>
+      <c r="D61" s="49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="57">
+        <v>5</v>
+      </c>
+      <c r="D62" s="58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="2">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="2">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="2">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="2">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="2">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="2">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="2">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="2">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="2">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="2">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="2">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="2">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="2">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="2">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="2">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="2">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="2">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="2">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="2">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="2">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="2">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="2">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="2">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="2">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="2">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="2">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="2">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="2">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="2">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="2">
+        <v>71.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
 </file>